--- a/bom/BOM_1541 CPU SMD Speeder.kicad_pcb_1.7.xlsx
+++ b/bom/BOM_1541 CPU SMD Speeder.kicad_pcb_1.7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Eggen\Documents\Git\1541-cpu-smd-speeder_16V8\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Eggen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A4040A-872C-464C-A392-8E4CAF44270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF537DCF-9B64-498A-8C3B-F56F9C9586C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>R1,R2,R3</t>
-  </si>
-  <si>
     <t>U1*</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>IC for the U2 PLCC 32 Socket</t>
+  </si>
+  <si>
+    <t>R2,R3,R4</t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -455,12 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,7 +817,7 @@
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -835,25 +835,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -889,26 +889,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -922,22 +922,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -951,22 +951,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29.15">
@@ -980,20 +980,20 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1001,28 +1001,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="H11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="25.3">
@@ -1030,28 +1030,28 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.3">
@@ -1059,28 +1059,28 @@
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1088,26 +1088,26 @@
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1115,26 +1115,26 @@
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1142,26 +1142,26 @@
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7">
         <v>61300211121</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1169,40 +1169,40 @@
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12"/>
@@ -1216,17 +1216,17 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
